--- a/src/main/insert personenbezogene Daten/9 Austrittsgrund.xlsx
+++ b/src/main/insert personenbezogene Daten/9 Austrittsgrund.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert personenbezogene Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751D7A20-C823-4C0D-ADF6-CD5386A17EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA431483-B789-4F6A-8189-0411A7F18F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3672" yWindow="936" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Daten</t>
   </si>
@@ -43,6 +44,15 @@
   </si>
   <si>
     <t>Umsatzrueckgang</t>
+  </si>
+  <si>
+    <t>Austrittsgrundkategorien</t>
+  </si>
+  <si>
+    <t>verhaltensbedingt</t>
+  </si>
+  <si>
+    <t>personenbedingt</t>
   </si>
 </sst>
 </file>
@@ -86,11 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -374,7 +383,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,10 +401,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -413,5 +422,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{860510ED-9581-46F9-A802-CC9CD4D50911}">
+          <x14:formula1>
+            <xm:f>Tabelle2!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF3835F-7EF5-4CA6-AA06-206A35DB43C5}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/insert personenbezogene Daten/9 Austrittsgrund.xlsx
+++ b/src/main/insert personenbezogene Daten/9 Austrittsgrund.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert personenbezogene Daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_austrittsgrund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA431483-B789-4F6A-8189-0411A7F18F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A3C31F-6320-47A1-8453-83B8E51F48CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -115,6 +118,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+      <sheetName val="Tabelle2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,7 +404,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,9 +446,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{860510ED-9581-46F9-A802-CC9CD4D50911}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EED02895-B531-4C23-8C9D-4DA1D1815E35}">
           <x14:formula1>
-            <xm:f>Tabelle2!$A$2:$A$4</xm:f>
+            <xm:f>'[Austrittsgrund - klein geschrieben.xlsx]Tabelle2'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
@@ -438,11 +459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF3835F-7EF5-4CA6-AA06-206A35DB43C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E490B0AB-AF12-42F6-872C-75743D715684}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
